--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课程评估表_IndInstruct.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课程评估表_IndInstruct.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ting/WORK/EarlyChildhoodEducation/WEP/STEAM/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="关于个性化指导" sheetId="1" r:id="rId1"/>
     <sheet name="观察评估表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>To be added</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,8 +66,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Individualized Instruction</t>
@@ -69,8 +76,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>）？</t>
@@ -125,8 +131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   - </t>
@@ -136,8 +141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>大带小，</t>
@@ -147,8 +151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">pair
@@ -159,8 +162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">相同年龄段工作组
@@ -171,8 +173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   - </t>
@@ -182,8 +183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">混龄一起活动
@@ -194,8 +194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   - </t>
@@ -205,8 +204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>（老师／孩子）一对一的指导</t>
@@ -257,12 +255,40 @@
 color or creating patterns out of colored objects.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,23 +344,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -345,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -357,12 +383,56 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -644,33 +714,33 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -693,17 +763,17 @@
   <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.296875" customWidth="1"/>
-    <col min="2" max="2" width="63.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -717,89 +787,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="69">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="55.2">
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="55.2">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C4:C12">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>